--- a/Smt.SDK.Test/bin/Debug/Excel/运费模板/菜鸟专线经济.xlsx
+++ b/Smt.SDK.Test/bin/Debug/Excel/运费模板/菜鸟专线经济.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">国家(二字码或中文)</t>
   </si>
@@ -43,18 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03</t>
   </si>
 </sst>
 </file>
@@ -134,26 +122,26 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2">
+        <v>2000</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>0.10196</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="F2">
+        <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
+      <c r="G2">
+        <v>0.10196</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="H2">
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>
